--- a/Tasya Monika_18318018/kuis 7/bak.xlsx
+++ b/Tasya Monika_18318018/kuis 7/bak.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tasya Monika\Documents\PPMC\Tasya Monika_18318018\kuis 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{E0DDA3B4-B872-42C5-ADEE-E65B3009AB1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{788C9B53-A9DF-4FD1-B9F0-BCE043EF0350}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020"/>
   </bookViews>
@@ -498,9 +498,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -651,10 +650,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>bak!$A$1:$A$97</c:f>
+              <c:f>bak!$A$1:$A$132</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="132"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -945,305 +944,515 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>11.9</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>12.1</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>12.3</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>12.7</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>13.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>bak!$B$1:$B$97</c:f>
+              <c:f>bak!$B$1:$B$132</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="132"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2999999999999999E-2</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5000000000000001E-2</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.6999999999999998E-2</c:v>
+                  <c:v>2.9000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.9000000000000002E-2</c:v>
+                  <c:v>3.9E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0999999999999999E-2</c:v>
+                  <c:v>4.8000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.2999999999999995E-2</c:v>
+                  <c:v>5.7000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.5000000000000006E-2</c:v>
+                  <c:v>6.6000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.7000000000000003E-2</c:v>
+                  <c:v>7.4999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.108</c:v>
+                  <c:v>8.4000000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>9.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.10199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.111</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0.12</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.13100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.14299999999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.154</c:v>
-                </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.16600000000000001</c:v>
+                  <c:v>0.129</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.17699999999999999</c:v>
+                  <c:v>0.13800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.188</c:v>
+                  <c:v>0.14599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.19900000000000001</c:v>
+                  <c:v>0.155</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.21099999999999999</c:v>
+                  <c:v>0.16400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.222</c:v>
+                  <c:v>0.17199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.23300000000000001</c:v>
+                  <c:v>0.18099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.24399999999999999</c:v>
+                  <c:v>0.189</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.255</c:v>
+                  <c:v>0.19800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.26600000000000001</c:v>
+                  <c:v>0.20599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.27700000000000002</c:v>
+                  <c:v>0.214</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.28799999999999998</c:v>
+                  <c:v>0.223</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.29899999999999999</c:v>
+                  <c:v>0.23100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.309</c:v>
+                  <c:v>0.23899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.32</c:v>
+                  <c:v>0.248</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.33100000000000002</c:v>
+                  <c:v>0.25600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.34200000000000003</c:v>
+                  <c:v>0.26400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.35199999999999998</c:v>
+                  <c:v>0.27200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.36299999999999999</c:v>
+                  <c:v>0.28100000000000003</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.374</c:v>
+                  <c:v>0.28899999999999998</c:v>
                 </c:pt>
                 <c:pt idx="34">
+                  <c:v>0.29699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.30499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.313</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.32100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.32900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.33700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.34499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.35299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.36099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.36899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.377</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>0.38400000000000001</c:v>
                 </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.39500000000000002</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.40500000000000003</c:v>
-                </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="46">
+                  <c:v>0.39200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.40799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>0.41599999999999998</c:v>
                 </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.42599999999999999</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.437</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.44700000000000001</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.45700000000000002</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.46800000000000003</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.47799999999999998</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.48899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.499</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.50900000000000001</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.51900000000000002</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.52900000000000003</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.54</c:v>
-                </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.55000000000000004</c:v>
+                  <c:v>0.42299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.56000000000000005</c:v>
+                  <c:v>0.43099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.56999999999999995</c:v>
+                  <c:v>0.439</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.57999999999999996</c:v>
+                  <c:v>0.44600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.59</c:v>
+                  <c:v>0.45400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.6</c:v>
+                  <c:v>0.46200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.61</c:v>
+                  <c:v>0.46899999999999997</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.62</c:v>
+                  <c:v>0.47699999999999998</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.63</c:v>
+                  <c:v>0.48499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.64</c:v>
+                  <c:v>0.49199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.65</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.66</c:v>
+                  <c:v>0.50700000000000001</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.67</c:v>
+                  <c:v>0.51500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.68</c:v>
+                  <c:v>0.52200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.69</c:v>
+                  <c:v>0.53</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.69899999999999995</c:v>
+                  <c:v>0.53700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.70899999999999996</c:v>
+                  <c:v>0.54400000000000004</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.71899999999999997</c:v>
+                  <c:v>0.55200000000000005</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.72899999999999998</c:v>
+                  <c:v>0.55900000000000005</c:v>
                 </c:pt>
                 <c:pt idx="69">
+                  <c:v>0.56699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.57399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.58099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.58899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.59599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.60299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.61099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.61799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.63200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.63900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.64700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.65400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.66100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.66800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.67500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.68200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.68899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.69699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.70399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.71099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.71799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.72499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.73199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>0.73899999999999999</c:v>
                 </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.748</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.75800000000000001</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.76800000000000002</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.77700000000000002</c:v>
-                </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="94">
+                  <c:v>0.746</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.753</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.76700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.77400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>0.78700000000000003</c:v>
                 </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.79700000000000004</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.80600000000000005</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.81599999999999995</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.82499999999999996</c:v>
-                </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="101">
+                  <c:v>0.79400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.80100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.80800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.81499999999999995</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.82199999999999995</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.82799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="107">
                   <c:v>0.83499999999999996</c:v>
                 </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.84399999999999997</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.85399999999999998</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.86299999999999999</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.873</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.88200000000000001</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.89200000000000002</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.90100000000000002</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.91100000000000003</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.92</c:v>
-                </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="108">
+                  <c:v>0.84199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.84899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.85599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.86199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.86899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.876</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.88300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.88900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.89600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.90300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.90900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.91600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.92300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="121">
                   <c:v>0.92900000000000005</c:v>
                 </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.93899999999999995</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.94799999999999995</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.95699999999999996</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.96699999999999997</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.97599999999999998</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.98499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="96">
+                <c:pt idx="122">
+                  <c:v>0.93600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.94199999999999995</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.94899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.95599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.96199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.96899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.97499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.98199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.98799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="131">
                   <c:v>0.995</c:v>
                 </c:pt>
               </c:numCache>
@@ -1252,928 +1461,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{000000C1-D5BD-4878-87CC-A1953AF054A8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>bak!$A$1:$A$97</c:f>
-              <c:strCache>
-                <c:ptCount val="97"/>
-                <c:pt idx="0">
-                  <c:v>0.00</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.30</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.40</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.50</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.60</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.70</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.80</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.90</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.00</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.10</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.20</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.30</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.40</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.50</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.60</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.70</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.80</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.90</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.00</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.10</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.20</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.30</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.40</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.50</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.60</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.70</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.80</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.90</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3.00</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3.10</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.20</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3.30</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3.40</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3.50</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3.60</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3.70</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3.80</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>3.90</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>4.00</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>4.10</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>4.20</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>4.30</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>4.40</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>4.50</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>4.60</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>4.70</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>4.80</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>4.90</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>5.00</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>5.10</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>5.20</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>5.30</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>5.40</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>5.50</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>5.60</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>5.70</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>5.80</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>5.90</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>6.00</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>6.10</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>6.20</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>6.30</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>6.40</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>6.50</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>6.60</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>6.70</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>6.80</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>6.90</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>7.00</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>7.10</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>7.20</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>7.30</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>7.40</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>7.50</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>7.60</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>7.70</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>7.80</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>7.90</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>8.00</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>8.10</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>8.20</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>8.30</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>8.40</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>8.50</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>8.60</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>8.70</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>8.80</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>8.90</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>9.00</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>9.10</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>9.20</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>9.30</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>9.40</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>9.50</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>9.60</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>bak!$A$1:$A$97</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="97"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.7</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.9</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.2000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.2999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.6</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.9</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3.1</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3.3</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3.4</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3.7</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3.8</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>3.9</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>4.0999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>4.2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>4.3</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>4.4000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>4.5999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>4.7</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>4.8</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>4.9000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>5.0999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>5.2</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>5.3</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>5.4</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>5.6</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>5.7</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>5.8</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>5.9</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>6.1</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>6.2</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>6.3</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>6.4</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>6.5</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>6.6</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>6.7</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>6.8</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>6.9</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>7.1</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>7.2</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>7.3</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>7.4</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>7.6</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>7.7</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>7.8</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>7.9</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>8.1</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>8.1999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>8.3000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>8.4</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>8.5</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>8.6</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>8.6999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>8.8000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>8.9</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>9.1</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>9.1999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>9.3000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>9.4</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>9.5</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>9.6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>bak!$B$1:$B$97</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="97"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.2999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.5000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.6999999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.9000000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.2999999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.5000000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.7000000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.108</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.13100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.14299999999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.154</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.16600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.17699999999999999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.188</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.19900000000000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.21099999999999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.222</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.23300000000000001</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.24399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.255</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.26600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.27700000000000002</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.28799999999999998</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.29899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.309</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.32</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.33100000000000002</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.34200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.35199999999999998</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.36299999999999999</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.374</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.38400000000000001</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.39500000000000002</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.40500000000000003</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.41599999999999998</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.42599999999999999</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.437</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.44700000000000001</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.45700000000000002</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.46800000000000003</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.47799999999999998</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.48899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.499</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.50900000000000001</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.51900000000000002</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.52900000000000003</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.54</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.56000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.56999999999999995</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.57999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.59</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.61</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.62</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.63</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.64</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.66</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.67</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.68</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.69</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.69899999999999995</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.70899999999999996</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.71899999999999997</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.72899999999999998</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.73899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.748</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.75800000000000001</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.76800000000000002</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.77700000000000002</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.78700000000000003</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.79700000000000004</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.80600000000000005</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.81599999999999995</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.82499999999999996</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.83499999999999996</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.84399999999999997</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.85399999999999998</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.86299999999999999</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.873</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.88200000000000001</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.89200000000000002</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.90100000000000002</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.91100000000000003</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.92</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.92900000000000005</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.93899999999999995</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.94799999999999995</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.95699999999999996</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.96699999999999997</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.97599999999999998</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.98499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.995</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000122-D5BD-4878-87CC-A1953AF054A8}"/>
+              <c16:uniqueId val="{00000001-2714-4C11-8B1D-158D4D4BD275}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2186,11 +1474,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2016622751"/>
-        <c:axId val="2095466847"/>
+        <c:axId val="706374384"/>
+        <c:axId val="765096672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2016622751"/>
+        <c:axId val="706374384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2217,7 +1505,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-ID"/>
-                  <a:t>Time</a:t>
+                  <a:t>time</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2251,7 +1539,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2288,7 +1576,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2095466847"/>
+        <c:crossAx val="765096672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2296,7 +1584,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2095466847"/>
+        <c:axId val="765096672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2337,7 +1625,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-ID"/>
-                  <a:t>Height</a:t>
+                  <a:t>height</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2371,7 +1659,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2402,7 +1690,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2016622751"/>
+        <c:crossAx val="706374384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3018,23 +2306,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>536575</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>41275</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>34924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>231775</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>22225</xdr:rowOff>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA157C32-11C6-4B85-928F-DA00291045BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC5653D6-B866-4264-A083-D37FFDE60679}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3352,790 +2640,1067 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B97"/>
+  <dimension ref="A1:B132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" zoomScale="62" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="16384" width="8.7265625" style="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1">
+      <c r="A1">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>0.1</v>
       </c>
-      <c r="B2" s="1">
-        <v>1.2999999999999999E-2</v>
+      <c r="B2">
+        <v>0.01</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+      <c r="A3">
         <v>0.2</v>
       </c>
-      <c r="B3" s="1">
-        <v>2.5000000000000001E-2</v>
+      <c r="B3">
+        <v>0.02</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+      <c r="A4">
         <v>0.3</v>
       </c>
-      <c r="B4" s="1">
-        <v>3.6999999999999998E-2</v>
+      <c r="B4">
+        <v>2.9000000000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+      <c r="A5">
         <v>0.4</v>
       </c>
-      <c r="B5" s="1">
-        <v>4.9000000000000002E-2</v>
+      <c r="B5">
+        <v>3.9E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+      <c r="A6">
         <v>0.5</v>
       </c>
-      <c r="B6" s="1">
-        <v>6.0999999999999999E-2</v>
+      <c r="B6">
+        <v>4.8000000000000001E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+      <c r="A7">
         <v>0.6</v>
       </c>
-      <c r="B7" s="1">
-        <v>7.2999999999999995E-2</v>
+      <c r="B7">
+        <v>5.7000000000000002E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
+      <c r="A8">
         <v>0.7</v>
       </c>
-      <c r="B8" s="1">
-        <v>8.5000000000000006E-2</v>
+      <c r="B8">
+        <v>6.6000000000000003E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
+      <c r="A9">
         <v>0.8</v>
       </c>
-      <c r="B9" s="1">
-        <v>9.7000000000000003E-2</v>
+      <c r="B9">
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
+      <c r="A10">
         <v>0.9</v>
       </c>
-      <c r="B10" s="1">
-        <v>0.108</v>
+      <c r="B10">
+        <v>8.4000000000000005E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
+      <c r="A11">
         <v>1</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B12">
+        <v>0.10199999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>1.2</v>
+      </c>
+      <c r="B13">
+        <v>0.111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>1.3</v>
+      </c>
+      <c r="B14">
         <v>0.12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B12" s="1">
-        <v>0.13100000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0.14299999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0.154</v>
-      </c>
-    </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
+      <c r="A15">
         <v>1.4</v>
       </c>
-      <c r="B15" s="1">
-        <v>0.16600000000000001</v>
+      <c r="B15">
+        <v>0.129</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
+      <c r="A16">
         <v>1.5</v>
       </c>
-      <c r="B16" s="1">
-        <v>0.17699999999999999</v>
+      <c r="B16">
+        <v>0.13800000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
+      <c r="A17">
         <v>1.6</v>
       </c>
-      <c r="B17" s="1">
-        <v>0.188</v>
+      <c r="B17">
+        <v>0.14599999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
+      <c r="A18">
         <v>1.7</v>
       </c>
-      <c r="B18" s="1">
-        <v>0.19900000000000001</v>
+      <c r="B18">
+        <v>0.155</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
+      <c r="A19">
         <v>1.8</v>
       </c>
-      <c r="B19" s="1">
-        <v>0.21099999999999999</v>
+      <c r="B19">
+        <v>0.16400000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
+      <c r="A20">
         <v>1.9</v>
       </c>
-      <c r="B20" s="1">
-        <v>0.222</v>
+      <c r="B20">
+        <v>0.17199999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
+      <c r="A21">
         <v>2</v>
       </c>
-      <c r="B21" s="1">
-        <v>0.23300000000000001</v>
+      <c r="B21">
+        <v>0.18099999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
+      <c r="A22">
         <v>2.1</v>
       </c>
-      <c r="B22" s="1">
-        <v>0.24399999999999999</v>
+      <c r="B22">
+        <v>0.189</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
+      <c r="A23">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B23" s="1">
-        <v>0.255</v>
+      <c r="B23">
+        <v>0.19800000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
+      <c r="A24">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B24" s="1">
-        <v>0.26600000000000001</v>
+      <c r="B24">
+        <v>0.20599999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
+      <c r="A25">
         <v>2.4</v>
       </c>
-      <c r="B25" s="1">
-        <v>0.27700000000000002</v>
+      <c r="B25">
+        <v>0.214</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
+      <c r="A26">
         <v>2.5</v>
       </c>
-      <c r="B26" s="1">
-        <v>0.28799999999999998</v>
+      <c r="B26">
+        <v>0.223</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
+      <c r="A27">
         <v>2.6</v>
       </c>
-      <c r="B27" s="1">
-        <v>0.29899999999999999</v>
+      <c r="B27">
+        <v>0.23100000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
+      <c r="A28">
         <v>2.7</v>
       </c>
-      <c r="B28" s="1">
-        <v>0.309</v>
+      <c r="B28">
+        <v>0.23899999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
+      <c r="A29">
         <v>2.8</v>
       </c>
-      <c r="B29" s="1">
-        <v>0.32</v>
+      <c r="B29">
+        <v>0.248</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
+      <c r="A30">
         <v>2.9</v>
       </c>
-      <c r="B30" s="1">
-        <v>0.33100000000000002</v>
+      <c r="B30">
+        <v>0.25600000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
+      <c r="A31">
         <v>3</v>
       </c>
-      <c r="B31" s="1">
-        <v>0.34200000000000003</v>
+      <c r="B31">
+        <v>0.26400000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
+      <c r="A32">
         <v>3.1</v>
       </c>
-      <c r="B32" s="1">
-        <v>0.35199999999999998</v>
+      <c r="B32">
+        <v>0.27200000000000002</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
+      <c r="A33">
         <v>3.2</v>
       </c>
-      <c r="B33" s="1">
-        <v>0.36299999999999999</v>
+      <c r="B33">
+        <v>0.28100000000000003</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
+      <c r="A34">
         <v>3.3</v>
       </c>
-      <c r="B34" s="1">
-        <v>0.374</v>
+      <c r="B34">
+        <v>0.28899999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
+      <c r="A35">
         <v>3.4</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35">
+        <v>0.29699999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>3.5</v>
+      </c>
+      <c r="B36">
+        <v>0.30499999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>3.6</v>
+      </c>
+      <c r="B37">
+        <v>0.313</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>3.7</v>
+      </c>
+      <c r="B38">
+        <v>0.32100000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>3.8</v>
+      </c>
+      <c r="B39">
+        <v>0.32900000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>3.9</v>
+      </c>
+      <c r="B40">
+        <v>0.33700000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>4</v>
+      </c>
+      <c r="B41">
+        <v>0.34499999999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B42">
+        <v>0.35299999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>4.2</v>
+      </c>
+      <c r="B43">
+        <v>0.36099999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>4.3</v>
+      </c>
+      <c r="B44">
+        <v>0.36899999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B45">
+        <v>0.377</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>4.5</v>
+      </c>
+      <c r="B46">
         <v>0.38400000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="B36" s="1">
-        <v>0.39500000000000002</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
-        <v>3.6</v>
-      </c>
-      <c r="B37" s="1">
-        <v>0.40500000000000003</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
-        <v>3.7</v>
-      </c>
-      <c r="B38" s="1">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B47">
+        <v>0.39200000000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>4.7</v>
+      </c>
+      <c r="B48">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>4.8</v>
+      </c>
+      <c r="B49">
+        <v>0.40799999999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B50">
         <v>0.41599999999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
-        <v>3.8</v>
-      </c>
-      <c r="B39" s="1">
-        <v>0.42599999999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
-        <v>3.9</v>
-      </c>
-      <c r="B40" s="1">
-        <v>0.437</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
-        <v>4</v>
-      </c>
-      <c r="B41" s="1">
-        <v>0.44700000000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="1">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="B42" s="1">
-        <v>0.45700000000000002</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
-        <v>4.2</v>
-      </c>
-      <c r="B43" s="1">
-        <v>0.46800000000000003</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
-        <v>4.3</v>
-      </c>
-      <c r="B44" s="1">
-        <v>0.47799999999999998</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="B45" s="1">
-        <v>0.48899999999999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="B46" s="1">
-        <v>0.499</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="1">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="B47" s="1">
-        <v>0.50900000000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" s="1">
-        <v>4.7</v>
-      </c>
-      <c r="B48" s="1">
-        <v>0.51900000000000002</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="1">
-        <v>4.8</v>
-      </c>
-      <c r="B49" s="1">
-        <v>0.52900000000000003</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" s="1">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="B50" s="1">
-        <v>0.54</v>
-      </c>
-    </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" s="1">
+      <c r="A51">
         <v>5</v>
       </c>
-      <c r="B51" s="1">
-        <v>0.55000000000000004</v>
+      <c r="B51">
+        <v>0.42299999999999999</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" s="1">
+      <c r="A52">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B52" s="1">
-        <v>0.56000000000000005</v>
+      <c r="B52">
+        <v>0.43099999999999999</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" s="1">
+      <c r="A53">
         <v>5.2</v>
       </c>
-      <c r="B53" s="1">
-        <v>0.56999999999999995</v>
+      <c r="B53">
+        <v>0.439</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" s="1">
+      <c r="A54">
         <v>5.3</v>
       </c>
-      <c r="B54" s="1">
-        <v>0.57999999999999996</v>
+      <c r="B54">
+        <v>0.44600000000000001</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" s="1">
+      <c r="A55">
         <v>5.4</v>
       </c>
-      <c r="B55" s="1">
-        <v>0.59</v>
+      <c r="B55">
+        <v>0.45400000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" s="1">
+      <c r="A56">
         <v>5.5</v>
       </c>
-      <c r="B56" s="1">
-        <v>0.6</v>
+      <c r="B56">
+        <v>0.46200000000000002</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" s="1">
+      <c r="A57">
         <v>5.6</v>
       </c>
-      <c r="B57" s="1">
-        <v>0.61</v>
+      <c r="B57">
+        <v>0.46899999999999997</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" s="1">
+      <c r="A58">
         <v>5.7</v>
       </c>
-      <c r="B58" s="1">
-        <v>0.62</v>
+      <c r="B58">
+        <v>0.47699999999999998</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" s="1">
+      <c r="A59">
         <v>5.8</v>
       </c>
-      <c r="B59" s="1">
-        <v>0.63</v>
+      <c r="B59">
+        <v>0.48499999999999999</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" s="1">
+      <c r="A60">
         <v>5.9</v>
       </c>
-      <c r="B60" s="1">
-        <v>0.64</v>
+      <c r="B60">
+        <v>0.49199999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" s="1">
+      <c r="A61">
         <v>6</v>
       </c>
-      <c r="B61" s="1">
-        <v>0.65</v>
+      <c r="B61">
+        <v>0.5</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" s="1">
+      <c r="A62">
         <v>6.1</v>
       </c>
-      <c r="B62" s="1">
-        <v>0.66</v>
+      <c r="B62">
+        <v>0.50700000000000001</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" s="1">
+      <c r="A63">
         <v>6.2</v>
       </c>
-      <c r="B63" s="1">
-        <v>0.67</v>
+      <c r="B63">
+        <v>0.51500000000000001</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" s="1">
+      <c r="A64">
         <v>6.3</v>
       </c>
-      <c r="B64" s="1">
-        <v>0.68</v>
+      <c r="B64">
+        <v>0.52200000000000002</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" s="1">
+      <c r="A65">
         <v>6.4</v>
       </c>
-      <c r="B65" s="1">
-        <v>0.69</v>
+      <c r="B65">
+        <v>0.53</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" s="1">
+      <c r="A66">
         <v>6.5</v>
       </c>
-      <c r="B66" s="1">
-        <v>0.69899999999999995</v>
+      <c r="B66">
+        <v>0.53700000000000003</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" s="1">
+      <c r="A67">
         <v>6.6</v>
       </c>
-      <c r="B67" s="1">
-        <v>0.70899999999999996</v>
+      <c r="B67">
+        <v>0.54400000000000004</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" s="1">
+      <c r="A68">
         <v>6.7</v>
       </c>
-      <c r="B68" s="1">
-        <v>0.71899999999999997</v>
+      <c r="B68">
+        <v>0.55200000000000005</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69" s="1">
+      <c r="A69">
         <v>6.8</v>
       </c>
-      <c r="B69" s="1">
-        <v>0.72899999999999998</v>
+      <c r="B69">
+        <v>0.55900000000000005</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70" s="1">
+      <c r="A70">
         <v>6.9</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70">
+        <v>0.56699999999999995</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>7</v>
+      </c>
+      <c r="B71">
+        <v>0.57399999999999995</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>7.1</v>
+      </c>
+      <c r="B72">
+        <v>0.58099999999999996</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>7.2</v>
+      </c>
+      <c r="B73">
+        <v>0.58899999999999997</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>7.3</v>
+      </c>
+      <c r="B74">
+        <v>0.59599999999999997</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>7.4</v>
+      </c>
+      <c r="B75">
+        <v>0.60299999999999998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>7.5</v>
+      </c>
+      <c r="B76">
+        <v>0.61099999999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>7.6</v>
+      </c>
+      <c r="B77">
+        <v>0.61799999999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>7.7</v>
+      </c>
+      <c r="B78">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>7.8</v>
+      </c>
+      <c r="B79">
+        <v>0.63200000000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>7.9</v>
+      </c>
+      <c r="B80">
+        <v>0.63900000000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>8</v>
+      </c>
+      <c r="B81">
+        <v>0.64700000000000002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>8.1</v>
+      </c>
+      <c r="B82">
+        <v>0.65400000000000003</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="B83">
+        <v>0.66100000000000003</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="B84">
+        <v>0.66800000000000004</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>8.4</v>
+      </c>
+      <c r="B85">
+        <v>0.67500000000000004</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>8.5</v>
+      </c>
+      <c r="B86">
+        <v>0.68200000000000005</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>8.6</v>
+      </c>
+      <c r="B87">
+        <v>0.68899999999999995</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="B88">
+        <v>0.69699999999999995</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="B89">
+        <v>0.70399999999999996</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>8.9</v>
+      </c>
+      <c r="B90">
+        <v>0.71099999999999997</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>9</v>
+      </c>
+      <c r="B91">
+        <v>0.71799999999999997</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>9.1</v>
+      </c>
+      <c r="B92">
+        <v>0.72499999999999998</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="B93">
+        <v>0.73199999999999998</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="B94">
         <v>0.73899999999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" s="1">
-        <v>7</v>
-      </c>
-      <c r="B71" s="1">
-        <v>0.748</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72" s="1">
-        <v>7.1</v>
-      </c>
-      <c r="B72" s="1">
-        <v>0.75800000000000001</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73" s="1">
-        <v>7.2</v>
-      </c>
-      <c r="B73" s="1">
-        <v>0.76800000000000002</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" s="1">
-        <v>7.3</v>
-      </c>
-      <c r="B74" s="1">
-        <v>0.77700000000000002</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75" s="1">
-        <v>7.4</v>
-      </c>
-      <c r="B75" s="1">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>9.4</v>
+      </c>
+      <c r="B95">
+        <v>0.746</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>9.5</v>
+      </c>
+      <c r="B96">
+        <v>0.753</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>9.6</v>
+      </c>
+      <c r="B97">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="B98">
+        <v>0.76700000000000002</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="B99">
+        <v>0.77400000000000002</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>9.9</v>
+      </c>
+      <c r="B100">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>10</v>
+      </c>
+      <c r="B101">
         <v>0.78700000000000003</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="B76" s="1">
-        <v>0.79700000000000004</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77" s="1">
-        <v>7.6</v>
-      </c>
-      <c r="B77" s="1">
-        <v>0.80600000000000005</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78" s="1">
-        <v>7.7</v>
-      </c>
-      <c r="B78" s="1">
-        <v>0.81599999999999995</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A79" s="1">
-        <v>7.8</v>
-      </c>
-      <c r="B79" s="1">
-        <v>0.82499999999999996</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A80" s="1">
-        <v>7.9</v>
-      </c>
-      <c r="B80" s="1">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>10.1</v>
+      </c>
+      <c r="B102">
+        <v>0.79400000000000004</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="B103">
+        <v>0.80100000000000005</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>10.3</v>
+      </c>
+      <c r="B104">
+        <v>0.80800000000000005</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>10.4</v>
+      </c>
+      <c r="B105">
+        <v>0.81499999999999995</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>10.5</v>
+      </c>
+      <c r="B106">
+        <v>0.82199999999999995</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>10.6</v>
+      </c>
+      <c r="B107">
+        <v>0.82799999999999996</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>10.7</v>
+      </c>
+      <c r="B108">
         <v>0.83499999999999996</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" s="1">
-        <v>8</v>
-      </c>
-      <c r="B81" s="1">
-        <v>0.84399999999999997</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A82" s="1">
-        <v>8.1</v>
-      </c>
-      <c r="B82" s="1">
-        <v>0.85399999999999998</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83" s="1">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="B83" s="1">
-        <v>0.86299999999999999</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84" s="1">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="B84" s="1">
-        <v>0.873</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A85" s="1">
-        <v>8.4</v>
-      </c>
-      <c r="B85" s="1">
-        <v>0.88200000000000001</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86" s="1">
-        <v>8.5</v>
-      </c>
-      <c r="B86" s="1">
-        <v>0.89200000000000002</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A87" s="1">
-        <v>8.6</v>
-      </c>
-      <c r="B87" s="1">
-        <v>0.90100000000000002</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A88" s="1">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="B88" s="1">
-        <v>0.91100000000000003</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89" s="1">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="B89" s="1">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A90" s="1">
-        <v>8.9</v>
-      </c>
-      <c r="B90" s="1">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>10.8</v>
+      </c>
+      <c r="B109">
+        <v>0.84199999999999997</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>10.9</v>
+      </c>
+      <c r="B110">
+        <v>0.84899999999999998</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>11</v>
+      </c>
+      <c r="B111">
+        <v>0.85599999999999998</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>11.1</v>
+      </c>
+      <c r="B112">
+        <v>0.86199999999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>11.2</v>
+      </c>
+      <c r="B113">
+        <v>0.86899999999999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>11.3</v>
+      </c>
+      <c r="B114">
+        <v>0.876</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>11.4</v>
+      </c>
+      <c r="B115">
+        <v>0.88300000000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>11.5</v>
+      </c>
+      <c r="B116">
+        <v>0.88900000000000001</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>11.6</v>
+      </c>
+      <c r="B117">
+        <v>0.89600000000000002</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>11.7</v>
+      </c>
+      <c r="B118">
+        <v>0.90300000000000002</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>11.8</v>
+      </c>
+      <c r="B119">
+        <v>0.90900000000000003</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>11.9</v>
+      </c>
+      <c r="B120">
+        <v>0.91600000000000004</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>12</v>
+      </c>
+      <c r="B121">
+        <v>0.92300000000000004</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <v>12.1</v>
+      </c>
+      <c r="B122">
         <v>0.92900000000000005</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A91" s="1">
-        <v>9</v>
-      </c>
-      <c r="B91" s="1">
-        <v>0.93899999999999995</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A92" s="1">
-        <v>9.1</v>
-      </c>
-      <c r="B92" s="1">
-        <v>0.94799999999999995</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A93" s="1">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="B93" s="1">
-        <v>0.95699999999999996</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A94" s="1">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="B94" s="1">
-        <v>0.96699999999999997</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A95" s="1">
-        <v>9.4</v>
-      </c>
-      <c r="B95" s="1">
-        <v>0.97599999999999998</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A96" s="1">
-        <v>9.5</v>
-      </c>
-      <c r="B96" s="1">
-        <v>0.98499999999999999</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A97" s="1">
-        <v>9.6</v>
-      </c>
-      <c r="B97" s="1">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <v>12.2</v>
+      </c>
+      <c r="B123">
+        <v>0.93600000000000005</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <v>12.3</v>
+      </c>
+      <c r="B124">
+        <v>0.94199999999999995</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <v>12.4</v>
+      </c>
+      <c r="B125">
+        <v>0.94899999999999995</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126">
+        <v>12.5</v>
+      </c>
+      <c r="B126">
+        <v>0.95599999999999996</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127">
+        <v>12.6</v>
+      </c>
+      <c r="B127">
+        <v>0.96199999999999997</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128">
+        <v>12.7</v>
+      </c>
+      <c r="B128">
+        <v>0.96899999999999997</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129">
+        <v>12.8</v>
+      </c>
+      <c r="B129">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130">
+        <v>12.9</v>
+      </c>
+      <c r="B130">
+        <v>0.98199999999999998</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131">
+        <v>13</v>
+      </c>
+      <c r="B131">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132">
+        <v>13.1</v>
+      </c>
+      <c r="B132">
         <v>0.995</v>
       </c>
     </row>
